--- a/public/upload/sdtm-3-1-3-excel.xlsx
+++ b/public/upload/sdtm-3-1-3-excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="27820" windowHeight="11420" tabRatio="860"/>
+    <workbookView xWindow="160" yWindow="0" windowWidth="27820" windowHeight="11420" tabRatio="860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SDTM 1.3 SDTMIG 3.1.3" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Extra" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$A$1:$L$969</definedName>
@@ -17,24 +17,24 @@
     <definedName name="OLE_LINK9" localSheetId="0">'SDTM 1.3 SDTMIG 3.1.3'!$J$162</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'SDTM 1.3 SDTMIG 3.1.3'!$A:$L</definedName>
     <definedName name="Z_3D2B6433_1329_44FB_B7DE_D24CF7109B21_.wvu.Cols" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!#REF!</definedName>
-    <definedName name="Z_3D2B6433_1329_44FB_B7DE_D24CF7109B21_.wvu.FilterData" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$A$1:$L$969</definedName>
+    <definedName name="Z_3D2B6433_1329_44FB_B7DE_D24CF7109B21_.wvu.FilterData" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$B$1:$M$1</definedName>
     <definedName name="Z_3D2B6433_1329_44FB_B7DE_D24CF7109B21_.wvu.PrintArea" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$A:$L</definedName>
     <definedName name="Z_82D46257_41BF_4117_B40B_1A01981D3099_.wvu.Cols" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!#REF!</definedName>
-    <definedName name="Z_82D46257_41BF_4117_B40B_1A01981D3099_.wvu.FilterData" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$A$1:$L$969</definedName>
+    <definedName name="Z_82D46257_41BF_4117_B40B_1A01981D3099_.wvu.FilterData" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$B$1:$M$1</definedName>
     <definedName name="Z_82D46257_41BF_4117_B40B_1A01981D3099_.wvu.PrintArea" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$A:$L</definedName>
     <definedName name="Z_856B09C9_8B94_4346_8227_95762479F1DB_.wvu.Cols" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!#REF!</definedName>
-    <definedName name="Z_856B09C9_8B94_4346_8227_95762479F1DB_.wvu.FilterData" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$A$1:$L$969</definedName>
+    <definedName name="Z_856B09C9_8B94_4346_8227_95762479F1DB_.wvu.FilterData" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$B$1:$N$1</definedName>
     <definedName name="Z_856B09C9_8B94_4346_8227_95762479F1DB_.wvu.PrintArea" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$A:$L</definedName>
     <definedName name="Z_9CA9EE55_9E60_CF4D_8BDE_A47B53F67DC9_.wvu.Cols" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!#REF!</definedName>
-    <definedName name="Z_9CA9EE55_9E60_CF4D_8BDE_A47B53F67DC9_.wvu.FilterData" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$A$1:$L$969</definedName>
+    <definedName name="Z_9CA9EE55_9E60_CF4D_8BDE_A47B53F67DC9_.wvu.FilterData" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$B$1:$M$1</definedName>
     <definedName name="Z_9CA9EE55_9E60_CF4D_8BDE_A47B53F67DC9_.wvu.PrintArea" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$A:$L</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="jchason - Personal View" guid="{856B09C9-8B94-4346-8227-95762479F1DB}" mergeInterval="0" personalView="1" xWindow="47" windowWidth="1871" windowHeight="1040" tabRatio="860" activeSheetId="1"/>
+    <customWorkbookView name="Wayne Kubick - Personal View" guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" mergeInterval="0" personalView="1" xWindow="407" yWindow="54" windowWidth="1037" windowHeight="722" tabRatio="860" activeSheetId="1"/>
+    <customWorkbookView name="Amy - Personal View" guid="{3D2B6433-1329-44FB-B7DE-D24CF7109B21}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" tabRatio="860" activeSheetId="1"/>
     <customWorkbookView name="Anthony Chow - Personal View" guid="{82D46257-41BF-4117-B40B-1A01981D3099}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1688" yWindow="-8" windowWidth="1696" windowHeight="1036" tabRatio="860" activeSheetId="1"/>
-    <customWorkbookView name="Amy - Personal View" guid="{3D2B6433-1329-44FB-B7DE-D24CF7109B21}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" tabRatio="860" activeSheetId="1"/>
-    <customWorkbookView name="Wayne Kubick - Personal View" guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" mergeInterval="0" personalView="1" xWindow="407" yWindow="54" windowWidth="1037" windowHeight="722" tabRatio="860" activeSheetId="1"/>
-    <customWorkbookView name="jchason - Personal View" guid="{856B09C9-8B94-4346-8227-95762479F1DB}" mergeInterval="0" personalView="1" xWindow="47" windowWidth="1871" windowHeight="1040" tabRatio="860" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8679" uniqueCount="2245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8851" uniqueCount="2383">
   <si>
     <t>Contains the finding for all questions or sub-scores, copied or derived from QSORRES in a standard format or standard units. QSSTRESC should store all findings in character format; if findings are numeric, they should also be stored in numeric format in QSSTRESN. If question scores are derived from the original finding, then the standard format is the score. Examples: 0, 1. When sponsors apply codelist to indicate the code values are statistically meaningful standardized scores, which are defined by sponsors or by valid methodologies such as SF36 questionnaires, QSORRES will contain the decode format, and QSSTRESC and QSSTRESN may contain the standardized code values or scores.</t>
   </si>
@@ -6830,19 +6830,433 @@
 </t>
   </si>
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>(DOMAIN)</t>
   </si>
   <si>
     <t>Name of the intervention treatment - usually the verbatim name of the investigational treatment given during the dosing period for the observation.</t>
+  </si>
+  <si>
+    <t>Domain Name</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Analysis Dataset</t>
+  </si>
+  <si>
+    <t>Adverse Events</t>
+  </si>
+  <si>
+    <t>One record per adverse event per subject</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Procedure Agents</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Autopsy</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>Non-Compliant ADaM Datasets</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Biospecimen Events</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Bone Measurements</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Biopsy</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Biospecimen</t>
+  </si>
+  <si>
+    <t>Clinical Events</t>
+  </si>
+  <si>
+    <t>One record per event per subject</t>
+  </si>
+  <si>
+    <t>Concomitant Meds</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cardiovascular System Findings</t>
+  </si>
+  <si>
+    <t>Drug Accountability</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Death Diagnosis</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Device Events</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>Device Identifiers</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>One record per subject</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Device Properties</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Developmental Milestone</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Device to Subject Relationship</t>
+  </si>
+  <si>
+    <t>Disposition</t>
+  </si>
+  <si>
+    <t>One record per disposition status or protocol milestone per subject</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Device Tracking and Disposition</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>Device-In-Use</t>
+  </si>
+  <si>
+    <t>Protocol Deviations</t>
+  </si>
+  <si>
+    <t>DX</t>
+  </si>
+  <si>
+    <t>Device Exposure</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>Endocrine System Findings</t>
+  </si>
+  <si>
+    <t>Electrocardiogram</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>Findings About Events or Interventions</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>Family History</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>Functional Tests</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>Gastrointestinal System Findings</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>Hematopoietic System Findings</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>Healthcare Encounters</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>Healthcare Resource Utilization</t>
+  </si>
+  <si>
+    <t>Inclusion/Exclusion</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>Integumentary System Findings</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Immune System Findings</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Immunogenicity Specimen Assessments</t>
+  </si>
+  <si>
+    <t>Laboratory Data</t>
+  </si>
+  <si>
+    <t>Microbiology</t>
+  </si>
+  <si>
+    <t>Medical History</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Microscopic Findings</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Musculoskeletal Findings,  Connective and Soft Tissue Findings</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Meal Data</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Morphology Findings</t>
+  </si>
+  <si>
+    <t>Microbiology Susceptibility</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Nervous System Findings</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>Pharmacogenomics Biomarker</t>
+  </si>
+  <si>
+    <t>Pharmacokinetic Concentration</t>
+  </si>
+  <si>
+    <t>Physical Exam</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Pharmacogenomics Findings</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Pharmacogenomics/Genetics Methods and Supporting Information</t>
+  </si>
+  <si>
+    <t>Pharmacokinetic Parameters</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Protocol Summary for PGx</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Pharmacogenomics Trial Characteristics</t>
+  </si>
+  <si>
+    <t>Questionnaires</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Respiratory System Findings</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>Reproductive System Findings</t>
+  </si>
+  <si>
+    <t>Disease Response</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Subject Biomarker</t>
+  </si>
+  <si>
+    <t>Subject Characteristics</t>
+  </si>
+  <si>
+    <t>Subject Element</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Surgery</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Skin Test</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Sleep Polysomnography Data</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Skin Response</t>
+  </si>
+  <si>
+    <t>Substance Use</t>
+  </si>
+  <si>
+    <t>Subject Visits</t>
+  </si>
+  <si>
+    <t>Trial Arms</t>
+  </si>
+  <si>
+    <t>Trial Elements</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>Tumor Findings</t>
+  </si>
+  <si>
+    <t>Trial Inclusion/Exclusion Criteria</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Trial Paths</t>
+  </si>
+  <si>
+    <t>Tumor Results</t>
+  </si>
+  <si>
+    <t>Trial Summary</t>
+  </si>
+  <si>
+    <t>Tumor Identifier</t>
+  </si>
+  <si>
+    <t>Trial Visits</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Trial Sets</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>Urinary System Findings</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>Viral Resistance Findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vital Signs </t>
   </si>
 </sst>
 </file>
@@ -6879,13 +7293,15 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6898,8 +7314,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -6922,12 +7344,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6942,18 +7375,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7357,7 +7783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B195" workbookViewId="0">
+    <sheetView topLeftCell="B195" workbookViewId="0">
       <selection activeCell="J195" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -11416,7 +11842,7 @@
         <v>1114</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I153" s="4" t="s">
         <v>1615</v>
@@ -12360,7 +12786,7 @@
         <v>1114</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I181" s="4" t="s">
         <v>1615</v>
@@ -12718,7 +13144,7 @@
         <v>1114</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I192" s="4" t="s">
         <v>1615</v>
@@ -13079,7 +13505,7 @@
         <v>1114</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I203" s="4" t="s">
         <v>1615</v>
@@ -13440,7 +13866,7 @@
         <v>1114</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I214" s="4" t="s">
         <v>1615</v>
@@ -14663,7 +15089,7 @@
         <v>1114</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I251" s="4" t="s">
         <v>1615</v>
@@ -14829,7 +15255,7 @@
         <v>1115</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="K256" s="4" t="s">
         <v>327</v>
@@ -15784,7 +16210,7 @@
         <v>1114</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I285" s="4" t="s">
         <v>1615</v>
@@ -16940,7 +17366,7 @@
         <v>1114</v>
       </c>
       <c r="H320" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I320" s="4" t="s">
         <v>1615</v>
@@ -18659,7 +19085,7 @@
         <v>1114</v>
       </c>
       <c r="H371" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I371" s="4" t="s">
         <v>1615</v>
@@ -19148,7 +19574,7 @@
         <v>1114</v>
       </c>
       <c r="H386" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I386" s="4" t="s">
         <v>1615</v>
@@ -19934,7 +20360,7 @@
         <v>1114</v>
       </c>
       <c r="H410" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I410" s="4" t="s">
         <v>1615</v>
@@ -20359,7 +20785,7 @@
         <v>1114</v>
       </c>
       <c r="H423" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I423" s="4" t="s">
         <v>1615</v>
@@ -21247,7 +21673,7 @@
         <v>1114</v>
       </c>
       <c r="H450" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I450" s="4" t="s">
         <v>1615</v>
@@ -22444,7 +22870,7 @@
         <v>1114</v>
       </c>
       <c r="H486" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I486" s="4" t="s">
         <v>1615</v>
@@ -22968,7 +23394,7 @@
         <v>1114</v>
       </c>
       <c r="H502" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I502" s="4" t="s">
         <v>1615</v>
@@ -24441,7 +24867,7 @@
         <v>1114</v>
       </c>
       <c r="H547" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I547" s="4" t="s">
         <v>1615</v>
@@ -25253,7 +25679,7 @@
         <v>1114</v>
       </c>
       <c r="H572" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I572" s="4" t="s">
         <v>1615</v>
@@ -26243,7 +26669,7 @@
         <v>1114</v>
       </c>
       <c r="H602" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I602" s="4" t="s">
         <v>1615</v>
@@ -26866,7 +27292,7 @@
         <v>1114</v>
       </c>
       <c r="H621" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I621" s="4" t="s">
         <v>1615</v>
@@ -27894,7 +28320,7 @@
         <v>1114</v>
       </c>
       <c r="H652" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I652" s="4" t="s">
         <v>1615</v>
@@ -28642,7 +29068,7 @@
         <v>1114</v>
       </c>
       <c r="H675" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I675" s="4" t="s">
         <v>1615</v>
@@ -29853,7 +30279,7 @@
         <v>1114</v>
       </c>
       <c r="H712" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I712" s="4" t="s">
         <v>1615</v>
@@ -30930,7 +31356,7 @@
         <v>1114</v>
       </c>
       <c r="H745" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I745" s="4" t="s">
         <v>1615</v>
@@ -32147,7 +32573,7 @@
         <v>1114</v>
       </c>
       <c r="H782" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I782" s="4" t="s">
         <v>1615</v>
@@ -32773,7 +33199,7 @@
         <v>1114</v>
       </c>
       <c r="H801" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I801" s="4" t="s">
         <v>1615</v>
@@ -33673,7 +34099,7 @@
         <v>1114</v>
       </c>
       <c r="H828" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I828" s="4" t="s">
         <v>1615</v>
@@ -34628,7 +35054,7 @@
         <v>1114</v>
       </c>
       <c r="H857" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I857" s="4" t="s">
         <v>1615</v>
@@ -35481,7 +35907,7 @@
         <v>1114</v>
       </c>
       <c r="H883" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I883" s="4" t="s">
         <v>1615</v>
@@ -36331,7 +36757,7 @@
         <v>1114</v>
       </c>
       <c r="H909" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I909" s="4" t="s">
         <v>1615</v>
@@ -36654,7 +37080,7 @@
         <v>1114</v>
       </c>
       <c r="H919" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I919" s="4" t="s">
         <v>1615</v>
@@ -36884,7 +37310,7 @@
         <v>1114</v>
       </c>
       <c r="H926" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I926" s="4" t="s">
         <v>1615</v>
@@ -37175,7 +37601,7 @@
         <v>1114</v>
       </c>
       <c r="H935" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I935" s="4" t="s">
         <v>1615</v>
@@ -37437,7 +37863,7 @@
         <v>1114</v>
       </c>
       <c r="H943" s="4" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="I943" s="4" t="s">
         <v>1615</v>
@@ -38252,9 +38678,25 @@
   <sheetProtection formatCells="0" formatColumns="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:L969"/>
   <customSheetViews>
-    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:N1048576"/>
+    <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}" showPageBreaks="1" printArea="1" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A874" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A999" sqref="A999"/>
+      <printOptions horizontalCentered="1" gridLines="1"/>
+      <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter>
+        <oddHeader>&amp;R&amp;"Arial,Bold"CDISC SDTM Implementation Guide (Version 3.1.3)</oddHeader>
+        <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
+      </headerFooter>
+      <autoFilter ref="B1:N1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="notEqual" val=" "/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" scale="75" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="F35" sqref="F35"/>
       <printOptions horizontalCentered="1" gridLines="1"/>
       <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter>
@@ -38273,8 +38715,9 @@
       </headerFooter>
       <autoFilter ref="B1:M1"/>
     </customSheetView>
-    <customSheetView guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" scale="75" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="F35" sqref="F35"/>
+    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:N1048576"/>
       <printOptions horizontalCentered="1" gridLines="1"/>
       <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter>
@@ -38282,23 +38725,6 @@
         <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
       </headerFooter>
       <autoFilter ref="B1:M1"/>
-    </customSheetView>
-    <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}" showPageBreaks="1" printArea="1" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A874" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A999" sqref="A999"/>
-      <printOptions horizontalCentered="1" gridLines="1"/>
-      <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-      <headerFooter>
-        <oddHeader>&amp;R&amp;"Arial,Bold"CDISC SDTM Implementation Guide (Version 3.1.3)</oddHeader>
-        <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
-      </headerFooter>
-      <autoFilter ref="B1:N1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="notEqual" val=" "/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -38319,62 +38745,722 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="58.5" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="101.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="53.5" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2241</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:3" ht="14">
+      <c r="A1" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>2242</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="7" customFormat="1">
-      <c r="A2" s="6"/>
-      <c r="C2" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1">
+      <c r="A2" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C2"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9"/>
-      <c r="C3" s="10"/>
+      <c r="A3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2247</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
-      <c r="C4" s="10"/>
+      <c r="A4" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2249</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="C5" s="10"/>
+      <c r="A5" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2251</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="A6" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2253</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" ht="13">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="11"/>
+      <c r="A7" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>322</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>428</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>540</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>600</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>601</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>389</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>410</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2382</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}">
+    <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}">
+      <selection activeCell="D17" sqref="D17"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+    </customSheetView>
+    <customSheetView guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}">
       <selection activeCell="D17" sqref="D17"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
     </customSheetView>
@@ -38382,11 +39468,7 @@
       <selection activeCell="D17" sqref="D17"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
     </customSheetView>
-    <customSheetView guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}">
-      <selection activeCell="D17" sqref="D17"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
-    </customSheetView>
-    <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}">
+    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}">
       <selection activeCell="D17" sqref="D17"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
     </customSheetView>

--- a/public/upload/sdtm-3-1-3-excel.xlsx
+++ b/public/upload/sdtm-3-1-3-excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="27820" windowHeight="11420" tabRatio="860" activeTab="1"/>
+    <workbookView xWindow="160" yWindow="0" windowWidth="35840" windowHeight="17940" tabRatio="860"/>
   </bookViews>
   <sheets>
     <sheet name="SDTM 1.3 SDTMIG 3.1.3" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <definedName name="Z_9CA9EE55_9E60_CF4D_8BDE_A47B53F67DC9_.wvu.FilterData" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$B$1:$M$1</definedName>
     <definedName name="Z_9CA9EE55_9E60_CF4D_8BDE_A47B53F67DC9_.wvu.PrintArea" localSheetId="0" hidden="1">'SDTM 1.3 SDTMIG 3.1.3'!$A:$L</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Anthony Chow - Personal View" guid="{82D46257-41BF-4117-B40B-1A01981D3099}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1688" yWindow="-8" windowWidth="1696" windowHeight="1036" tabRatio="860" activeSheetId="1"/>
+    <customWorkbookView name="Amy - Personal View" guid="{3D2B6433-1329-44FB-B7DE-D24CF7109B21}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" tabRatio="860" activeSheetId="1"/>
+    <customWorkbookView name="Wayne Kubick - Personal View" guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" mergeInterval="0" personalView="1" xWindow="407" yWindow="54" windowWidth="1037" windowHeight="722" tabRatio="860" activeSheetId="1"/>
     <customWorkbookView name="jchason - Personal View" guid="{856B09C9-8B94-4346-8227-95762479F1DB}" mergeInterval="0" personalView="1" xWindow="47" windowWidth="1871" windowHeight="1040" tabRatio="860" activeSheetId="1"/>
-    <customWorkbookView name="Wayne Kubick - Personal View" guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" mergeInterval="0" personalView="1" xWindow="407" yWindow="54" windowWidth="1037" windowHeight="722" tabRatio="860" activeSheetId="1"/>
-    <customWorkbookView name="Amy - Personal View" guid="{3D2B6433-1329-44FB-B7DE-D24CF7109B21}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" tabRatio="860" activeSheetId="1"/>
-    <customWorkbookView name="Anthony Chow - Personal View" guid="{82D46257-41BF-4117-B40B-1A01981D3099}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1688" yWindow="-8" windowWidth="1696" windowHeight="1036" tabRatio="860" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8851" uniqueCount="2383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8852" uniqueCount="2383">
   <si>
     <t>Contains the finding for all questions or sub-scores, copied or derived from QSORRES in a standard format or standard units. QSSTRESC should store all findings in character format; if findings are numeric, they should also be stored in numeric format in QSSTRESN. If question scores are derived from the original finding, then the standard format is the score. Examples: 0, 1. When sponsors apply codelist to indicate the code values are statistically meaningful standardized scores, which are defined by sponsors or by valid methodologies such as SF36 questionnaires, QSORRES will contain the decode format, and QSSTRESC and QSSTRESN may contain the standardized code values or scores.</t>
   </si>
@@ -7783,8 +7783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S969"/>
   <sheetViews>
-    <sheetView topLeftCell="B195" workbookViewId="0">
-      <selection activeCell="J195" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -34689,6 +34689,9 @@
       <c r="F846" s="4" t="s">
         <v>1868</v>
       </c>
+      <c r="G846" s="4" t="s">
+        <v>1114</v>
+      </c>
       <c r="H846" s="4" t="s">
         <v>1806</v>
       </c>
@@ -38678,25 +38681,9 @@
   <sheetProtection formatCells="0" formatColumns="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:L969"/>
   <customSheetViews>
-    <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}" showPageBreaks="1" printArea="1" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A874" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A999" sqref="A999"/>
-      <printOptions horizontalCentered="1" gridLines="1"/>
-      <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-      <headerFooter>
-        <oddHeader>&amp;R&amp;"Arial,Bold"CDISC SDTM Implementation Guide (Version 3.1.3)</oddHeader>
-        <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
-      </headerFooter>
-      <autoFilter ref="B1:N1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="notEqual" val=" "/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" scale="75" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="F35" sqref="F35"/>
+    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:N1048576"/>
       <printOptions horizontalCentered="1" gridLines="1"/>
       <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter>
@@ -38715,9 +38702,8 @@
       </headerFooter>
       <autoFilter ref="B1:M1"/>
     </customSheetView>
-    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:N1048576"/>
+    <customSheetView guid="{9CA9EE55-9E60-CF4D-8BDE-A47B53F67DC9}" scale="75" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="F35" sqref="F35"/>
       <printOptions horizontalCentered="1" gridLines="1"/>
       <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
       <headerFooter>
@@ -38725,6 +38711,23 @@
         <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
       </headerFooter>
       <autoFilter ref="B1:M1"/>
+    </customSheetView>
+    <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}" showPageBreaks="1" printArea="1" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A874" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A999" sqref="A999"/>
+      <printOptions horizontalCentered="1" gridLines="1"/>
+      <pageSetup scale="58" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter>
+        <oddHeader>&amp;R&amp;"Arial,Bold"CDISC SDTM Implementation Guide (Version 3.1.3)</oddHeader>
+        <oddFooter>&amp;L&amp;8Page &amp;P_x000D_July 16, 2012&amp;R&amp;8© 2012 Clinical Data Interchange Standards Consortium, Inc. All rights reserved _x000D_Final_x000D_</oddFooter>
+      </headerFooter>
+      <autoFilter ref="B1:N1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="notEqual" val=" "/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -38747,7 +38750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -39456,7 +39459,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}">
+    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}">
+      <selection activeCell="D17" sqref="D17"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+    </customSheetView>
+    <customSheetView guid="{3D2B6433-1329-44FB-B7DE-D24CF7109B21}" showPageBreaks="1">
       <selection activeCell="D17" sqref="D17"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
     </customSheetView>
@@ -39464,11 +39471,7 @@
       <selection activeCell="D17" sqref="D17"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
     </customSheetView>
-    <customSheetView guid="{3D2B6433-1329-44FB-B7DE-D24CF7109B21}" showPageBreaks="1">
-      <selection activeCell="D17" sqref="D17"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
-    </customSheetView>
-    <customSheetView guid="{82D46257-41BF-4117-B40B-1A01981D3099}">
+    <customSheetView guid="{856B09C9-8B94-4346-8227-95762479F1DB}">
       <selection activeCell="D17" sqref="D17"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
     </customSheetView>
